--- a/data/trans_camb/P18_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,47</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,98</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-11,13</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,77</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-8,63</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 0,01</t>
+          <t>-26,53; 10,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -1,13</t>
+          <t>-22,77; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,94; -2,99</t>
+          <t>-29,38; 0,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,55; 66,48</t>
+          <t>-30,81; 0,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -6,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -1,39</t>
+          <t>-23,15; -1,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 58,17</t>
+          <t>-17,56; 2,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,57; -6,5</t>
+          <t>-18,82; 1,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -1,87</t>
+          <t>-19,18; 6,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,53; 59,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-21,92; 0,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-16,7; 0,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; -1,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 1,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,74%</t>
+          <t>-41,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,99%</t>
+          <t>-26,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,51%</t>
+          <t>-41,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>234,97%</t>
+          <t>-47,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,92%</t>
+          <t>-37,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>163,99%</t>
+          <t>-21,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-45,05%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-32,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>190,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-38,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-23,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-29,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-29,92%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,49; 14,49</t>
+          <t>-81,85; 111,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -3,03</t>
+          <t>-61,25; 32,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -14,25</t>
+          <t>-71,61; 2,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>150,26; 325,45</t>
+          <t>-79,27; 6,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,62; -21,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 5,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,95; -5,85</t>
+          <t>-59,49; -5,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>126,01; 213,0</t>
+          <t>-45,57; 10,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,72; -21,89</t>
+          <t>-46,18; 4,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; -6,85</t>
+          <t>-50,97; 24,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-45,58; -14,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>152,34; 230,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-61,94; 2,94</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-46,06; 3,79</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-49,74; -7,32</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-54,82; 5,78</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,64</t>
+          <t>-15,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-13,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,6</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-18,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-21,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,31</t>
+          <t>-16,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-17,67</t>
+          <t>-15,7</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-13,29</t>
+          <t>-14,75</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>62,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-18,4</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-15,04</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-14,09</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-13,08</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -12,73</t>
+          <t>-21,62; -9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -7,77</t>
+          <t>-19,45; -7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -5,44</t>
+          <t>-18,95; -5,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,87; 73,98</t>
+          <t>-17,62; -5,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,96; -14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; -9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -8,7</t>
+          <t>-27,71; -14,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,85; 58,77</t>
+          <t>-23,07; -9,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -14,47</t>
+          <t>-22,19; -9,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -10,33</t>
+          <t>-21,92; -7,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-15,51; -8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,36; 65,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; -13,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; -10,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-18,37; -9,21</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; -8,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-75,26%</t>
+          <t>-66,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,42%</t>
+          <t>-56,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,05%</t>
+          <t>-51,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>314,7%</t>
+          <t>-47,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-63,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-49,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-45,53%</t>
+          <t>-65,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>184,42%</t>
+          <t>-51,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-68,53%</t>
+          <t>-49,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-51,55%</t>
+          <t>-46,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-47,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>241,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-66,12%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-54,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-50,65%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-47,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,19; -64,42</t>
+          <t>-79,25; -44,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,2; -39,01</t>
+          <t>-71,05; -36,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,28; -25,3</t>
+          <t>-67,39; -25,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>252,86; 399,8</t>
+          <t>-64,14; -23,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,84; -51,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,5; -36,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,2; -32,52</t>
+          <t>-76,91; -48,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>156,01; 222,38</t>
+          <t>-63,3; -36,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,78; -58,68</t>
+          <t>-61,24; -34,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-59,19; -42,35</t>
+          <t>-60,64; -27,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -35,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>206,79; 277,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-75,24; -53,34</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-62,61; -41,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-59,95; -36,85</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-58,94; -33,47</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,14</t>
+          <t>-15,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,09</t>
+          <t>-13,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-12,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,26</t>
+          <t>-12,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>-22,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,26</t>
+          <t>-13,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,92</t>
+          <t>-15,48</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-11,94</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-12,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>61,58</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-19,35</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-13,69</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-14,18</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-13,93</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -7,27</t>
+          <t>-23,67; -8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -5,84</t>
+          <t>-20,38; -6,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,32; -6,78</t>
+          <t>-19,9; -6,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,88; 73,84</t>
+          <t>-20,59; -3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,35; -14,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; -6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -7,3</t>
+          <t>-28,94; -15,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,69; 61,56</t>
+          <t>-21,0; -6,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -12,38</t>
+          <t>-22,23; -8,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -7,89</t>
+          <t>-21,91; -7,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,75; 65,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-24,87; -14,79</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; -9,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; -9,33</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-19,33; -8,58</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-57,12%</t>
+          <t>-62,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-48,83%</t>
+          <t>-53,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,62%</t>
+          <t>-49,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>275,81%</t>
+          <t>-49,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-67,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-43,84%</t>
+          <t>-69,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>186,98%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-62,42%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-46,7%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-46,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>227,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-67,12%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-47,48%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-49,18%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-48,31%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -30,4</t>
+          <t>-78,13; -29,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,02; -24,94</t>
+          <t>-68,04; -30,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,33; -30,85</t>
+          <t>-65,86; -30,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>205,31; 357,15</t>
+          <t>-69,06; -13,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,74; -54,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,4; -24,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,56; -28,12</t>
+          <t>-80,03; -56,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>146,01; 242,49</t>
+          <t>-56,03; -23,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -48,56</t>
+          <t>-59,67; -32,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-54,18; -31,11</t>
+          <t>-60,08; -27,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -34,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>188,95; 273,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-76,19; -53,97</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-59,45; -35,09</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-58,54; -37,1</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-60,01; -32,04</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,94</t>
+          <t>-14,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66,56</t>
+          <t>-12,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,84</t>
+          <t>-16,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,98</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>60,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-15,58</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-9,42</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-13,14</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,61; -11,1</t>
+          <t>-19,21; -9,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -7,85</t>
+          <t>-15,7; -5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,08; 69,99</t>
+          <t>-18,12; -7,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,96; -14,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,2; -7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -8,75</t>
+          <t>-20,91; -12,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,57; 57,33</t>
+          <t>-13,67; -2,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,76; -14,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -8,89</t>
+          <t>-17,65; -7,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -9,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,59; 62,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; -12,43</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-13,1; -5,58</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; -9,52</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-63,62%</t>
+          <t>-61,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,95%</t>
+          <t>-45,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>283,46%</t>
+          <t>-55,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-59,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-39,47%</t>
+          <t>-58,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>179,97%</t>
+          <t>-27,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-61,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>-45,62%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>224,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-60,26%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-36,42%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-50,81%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,62; -50,23</t>
+          <t>-75,61; -40,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,43; -35,08</t>
+          <t>-62,13; -24,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -35,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>239,36; 334,49</t>
+          <t>-70,56; -32,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,1; -51,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,9; -28,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,69; -30,57</t>
+          <t>-69,39; -47,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>158,03; 206,23</t>
+          <t>-45,29; -9,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -54,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-47,14; -34,27</t>
+          <t>-58,95; -28,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-48,79; -35,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>200,65; 246,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-68,58; -49,22</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,56; -22,11</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-61,28; -38,94</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-14,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-11,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-11,11</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-11,73</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-18,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-11,01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-11,51</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-11,94</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-16,19</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-11,1</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-11,33</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-11,84</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; -9,74</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; -7,67</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; -7,5</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; -8,09</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-20,94; -14,63</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; -7,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; -8,36</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; -8,15</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; -13,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; -8,58</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; -9,05</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; -9,36</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-60,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-47,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-47,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-49,9%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-59,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-36,61%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-38,28%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-39,68%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-60,28%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-41,32%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-42,19%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-44,07%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-69,9; -44,48</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-57,19; -35,68</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-57,3; -34,65</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-59,54; -36,09</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-66,06; -51,18</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-43,99; -27,75</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-46,06; -29,02</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; -28,92</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-66,24; -52,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-47,48; -34,06</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-48,63; -34,88</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-50,98; -35,94</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
